--- a/sample_summer_sems.xlsx
+++ b/sample_summer_sems.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="21" uniqueCount="21">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="43" uniqueCount="38">
   <si>
     <t xml:space="preserve">COURSE OWNER</t>
   </si>
@@ -83,6 +83,57 @@
   </si>
   <si>
     <t xml:space="preserve">COURSE STATUS</t>
+  </si>
+  <si>
+    <t xml:space="preserve">someone</t>
+  </si>
+  <si>
+    <t xml:space="preserve">some code</t>
+  </si>
+  <si>
+    <t xml:space="preserve">some title</t>
+  </si>
+  <si>
+    <t xml:space="preserve">some type</t>
+  </si>
+  <si>
+    <t xml:space="preserve">some hrs</t>
+  </si>
+  <si>
+    <t xml:space="preserve">some tut hours</t>
+  </si>
+  <si>
+    <t xml:space="preserve">some pracs</t>
+  </si>
+  <si>
+    <t xml:space="preserve">some projs</t>
+  </si>
+  <si>
+    <t xml:space="preserve">some credits</t>
+  </si>
+  <si>
+    <t xml:space="preserve">some id</t>
+  </si>
+  <si>
+    <t xml:space="preserve">some room</t>
+  </si>
+  <si>
+    <t xml:space="preserve">some slot</t>
+  </si>
+  <si>
+    <t xml:space="preserve">some erpid</t>
+  </si>
+  <si>
+    <t xml:space="preserve">some emp</t>
+  </si>
+  <si>
+    <t xml:space="preserve">some school</t>
+  </si>
+  <si>
+    <t xml:space="preserve">some mode</t>
+  </si>
+  <si>
+    <t xml:space="preserve">some</t>
   </si>
 </sst>
 </file>
@@ -207,25 +258,27 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:U9"/>
+  <dimension ref="A1:V9"/>
   <sheetViews>
-    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A2" activeCellId="0" sqref="A2"/>
+    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="I1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="V2" activeCellId="0" sqref="V2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="15.8542510121457"/>
+    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="15.9595141700405"/>
     <col collapsed="false" hidden="false" max="2" min="2" style="1" width="13.497975708502"/>
-    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="13.2834008097166"/>
-    <col collapsed="false" hidden="false" max="4" min="4" style="0" width="12.9595141700405"/>
-    <col collapsed="false" hidden="false" max="5" min="5" style="0" width="15.5303643724696"/>
+    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="13.3886639676113"/>
+    <col collapsed="false" hidden="false" max="4" min="4" style="0" width="13.0688259109312"/>
+    <col collapsed="false" hidden="false" max="5" min="5" style="0" width="15.6396761133603"/>
     <col collapsed="false" hidden="false" max="6" min="6" style="0" width="16.3886639676113"/>
     <col collapsed="false" hidden="false" max="10" min="7" style="0" width="8.57085020242915"/>
     <col collapsed="false" hidden="false" max="12" min="11" style="1" width="9.10526315789474"/>
     <col collapsed="false" hidden="false" max="13" min="13" style="0" width="8.57085020242915"/>
-    <col collapsed="false" hidden="false" max="14" min="14" style="1" width="9.10526315789474"/>
-    <col collapsed="false" hidden="false" max="1025" min="15" style="0" width="8.57085020242915"/>
+    <col collapsed="false" hidden="false" max="14" min="14" style="1" width="10.8056680161943"/>
+    <col collapsed="false" hidden="false" max="15" min="15" style="0" width="13.5627530364372"/>
+    <col collapsed="false" hidden="false" max="16" min="16" style="0" width="13.004048582996"/>
+    <col collapsed="false" hidden="false" max="1025" min="17" style="0" width="8.57085020242915"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -294,27 +347,72 @@
       </c>
     </row>
     <row r="2" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A2" s="2"/>
-      <c r="B2" s="3"/>
-      <c r="C2" s="2"/>
-      <c r="D2" s="2"/>
-      <c r="E2" s="2"/>
-      <c r="F2" s="2"/>
-      <c r="G2" s="2"/>
-      <c r="H2" s="2"/>
-      <c r="I2" s="2"/>
-      <c r="J2" s="2"/>
-      <c r="K2" s="3"/>
-      <c r="L2" s="3"/>
-      <c r="M2" s="2"/>
-      <c r="N2" s="3"/>
-      <c r="O2" s="2"/>
-      <c r="P2" s="2"/>
-      <c r="Q2" s="2"/>
-      <c r="R2" s="2"/>
-      <c r="S2" s="2"/>
-      <c r="T2" s="2"/>
-      <c r="U2" s="2"/>
+      <c r="A2" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="B2" s="3" t="s">
+        <v>22</v>
+      </c>
+      <c r="C2" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="D2" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="E2" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="F2" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="G2" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="H2" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="I2" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="J2" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="K2" s="3" t="s">
+        <v>31</v>
+      </c>
+      <c r="L2" s="3" t="s">
+        <v>32</v>
+      </c>
+      <c r="M2" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="N2" s="3" t="s">
+        <v>34</v>
+      </c>
+      <c r="O2" s="2" t="s">
+        <v>35</v>
+      </c>
+      <c r="P2" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="Q2" s="2" t="s">
+        <v>37</v>
+      </c>
+      <c r="R2" s="2" t="s">
+        <v>37</v>
+      </c>
+      <c r="S2" s="2" t="s">
+        <v>37</v>
+      </c>
+      <c r="T2" s="2" t="s">
+        <v>37</v>
+      </c>
+      <c r="U2" s="2" t="s">
+        <v>37</v>
+      </c>
+      <c r="V2" s="0" t="s">
+        <v>37</v>
+      </c>
     </row>
     <row r="3" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A3" s="2"/>

--- a/sample_summer_sems.xlsx
+++ b/sample_summer_sems.xlsx
@@ -9,6 +9,7 @@
   </bookViews>
   <sheets>
     <sheet name="Input Data" sheetId="1" state="visible" r:id="rId2"/>
+    <sheet name="Monday" sheetId="2" state="visible" r:id="rId3"/>
   </sheets>
   <calcPr iterateCount="100" refMode="A1" iterate="false" iterateDelta="0.0001"/>
   <extLst>
@@ -20,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="43" uniqueCount="38">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="35" uniqueCount="35">
   <si>
     <t xml:space="preserve">COURSE OWNER</t>
   </si>
@@ -85,55 +86,46 @@
     <t xml:space="preserve">COURSE STATUS</t>
   </si>
   <si>
-    <t xml:space="preserve">someone</t>
-  </si>
-  <si>
-    <t xml:space="preserve">some code</t>
-  </si>
-  <si>
-    <t xml:space="preserve">some title</t>
-  </si>
-  <si>
-    <t xml:space="preserve">some type</t>
-  </si>
-  <si>
-    <t xml:space="preserve">some hrs</t>
-  </si>
-  <si>
-    <t xml:space="preserve">some tut hours</t>
-  </si>
-  <si>
-    <t xml:space="preserve">some pracs</t>
-  </si>
-  <si>
-    <t xml:space="preserve">some projs</t>
-  </si>
-  <si>
-    <t xml:space="preserve">some credits</t>
-  </si>
-  <si>
-    <t xml:space="preserve">some id</t>
-  </si>
-  <si>
-    <t xml:space="preserve">some room</t>
-  </si>
-  <si>
-    <t xml:space="preserve">some slot</t>
-  </si>
-  <si>
-    <t xml:space="preserve">some erpid</t>
-  </si>
-  <si>
-    <t xml:space="preserve">some emp</t>
-  </si>
-  <si>
-    <t xml:space="preserve">some school</t>
-  </si>
-  <si>
-    <t xml:space="preserve">some mode</t>
-  </si>
-  <si>
-    <t xml:space="preserve">some</t>
+    <t xml:space="preserve">Venue</t>
+  </si>
+  <si>
+    <t xml:space="preserve">A11+A12 / 08:30 - 09:20 &amp; 09:21 - 10:10</t>
+  </si>
+  <si>
+    <t xml:space="preserve">B11+B12</t>
+  </si>
+  <si>
+    <t xml:space="preserve">C21+C22</t>
+  </si>
+  <si>
+    <t xml:space="preserve">D21+D22</t>
+  </si>
+  <si>
+    <t xml:space="preserve">SJTG01</t>
+  </si>
+  <si>
+    <t xml:space="preserve">lol</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ITE205 - AARTHY S.L</t>
+  </si>
+  <si>
+    <t xml:space="preserve">SWE510 - CHANDRASEKAR R</t>
+  </si>
+  <si>
+    <t xml:space="preserve">SWE1003 - AARTHY S.L</t>
+  </si>
+  <si>
+    <t xml:space="preserve">SJTG02</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ITE302 - ABC</t>
+  </si>
+  <si>
+    <t xml:space="preserve">SJTG03</t>
+  </si>
+  <si>
+    <t xml:space="preserve">SJTG04</t>
   </si>
 </sst>
 </file>
@@ -224,7 +216,7 @@
     <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="5">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
@@ -241,6 +233,10 @@
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
   </cellXfs>
   <cellStyles count="6">
     <cellStyle name="Normal" xfId="0" builtinId="0" customBuiltin="false"/>
@@ -250,6 +246,66 @@
     <cellStyle name="Currency [0]" xfId="18" builtinId="7" customBuiltin="false"/>
     <cellStyle name="Percent" xfId="19" builtinId="5" customBuiltin="false"/>
   </cellStyles>
+  <colors>
+    <indexedColors>
+      <rgbColor rgb="FF000000"/>
+      <rgbColor rgb="FFFFFFFF"/>
+      <rgbColor rgb="FFFF0000"/>
+      <rgbColor rgb="FF00FF00"/>
+      <rgbColor rgb="FF0000FF"/>
+      <rgbColor rgb="FFFFFF00"/>
+      <rgbColor rgb="FFFF00FF"/>
+      <rgbColor rgb="FF00FFFF"/>
+      <rgbColor rgb="FF800000"/>
+      <rgbColor rgb="FF008000"/>
+      <rgbColor rgb="FF000080"/>
+      <rgbColor rgb="FF808000"/>
+      <rgbColor rgb="FF800080"/>
+      <rgbColor rgb="FF008080"/>
+      <rgbColor rgb="FFC0C0C0"/>
+      <rgbColor rgb="FF808080"/>
+      <rgbColor rgb="FF5B9BD5"/>
+      <rgbColor rgb="FF993366"/>
+      <rgbColor rgb="FFFFFFCC"/>
+      <rgbColor rgb="FFCCFFFF"/>
+      <rgbColor rgb="FF660066"/>
+      <rgbColor rgb="FFFF8080"/>
+      <rgbColor rgb="FF0066CC"/>
+      <rgbColor rgb="FFCCCCFF"/>
+      <rgbColor rgb="FF000080"/>
+      <rgbColor rgb="FFFF00FF"/>
+      <rgbColor rgb="FFFFFF00"/>
+      <rgbColor rgb="FF00FFFF"/>
+      <rgbColor rgb="FF800080"/>
+      <rgbColor rgb="FF800000"/>
+      <rgbColor rgb="FF008080"/>
+      <rgbColor rgb="FF0000FF"/>
+      <rgbColor rgb="FF00CCFF"/>
+      <rgbColor rgb="FFCCFFFF"/>
+      <rgbColor rgb="FFCCFFCC"/>
+      <rgbColor rgb="FFFFFF99"/>
+      <rgbColor rgb="FF99CCFF"/>
+      <rgbColor rgb="FFFF99CC"/>
+      <rgbColor rgb="FFCC99FF"/>
+      <rgbColor rgb="FFFFCC99"/>
+      <rgbColor rgb="FF3366FF"/>
+      <rgbColor rgb="FF33CCCC"/>
+      <rgbColor rgb="FF99CC00"/>
+      <rgbColor rgb="FFFFCC00"/>
+      <rgbColor rgb="FFFF9900"/>
+      <rgbColor rgb="FFFF6600"/>
+      <rgbColor rgb="FF666699"/>
+      <rgbColor rgb="FF969696"/>
+      <rgbColor rgb="FF003366"/>
+      <rgbColor rgb="FF339966"/>
+      <rgbColor rgb="FF003300"/>
+      <rgbColor rgb="FF333300"/>
+      <rgbColor rgb="FF993300"/>
+      <rgbColor rgb="FF993366"/>
+      <rgbColor rgb="FF333399"/>
+      <rgbColor rgb="FF333333"/>
+    </indexedColors>
+  </colors>
 </styleSheet>
 </file>
 
@@ -258,27 +314,25 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:V9"/>
+  <dimension ref="A1:U21"/>
   <sheetViews>
-    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="I1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="V2" activeCellId="0" sqref="V2"/>
+    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="U1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="A2" activeCellId="0" sqref="A2:AH9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="15.9595141700405"/>
-    <col collapsed="false" hidden="false" max="2" min="2" style="1" width="13.497975708502"/>
-    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="13.3886639676113"/>
-    <col collapsed="false" hidden="false" max="4" min="4" style="0" width="13.0688259109312"/>
-    <col collapsed="false" hidden="false" max="5" min="5" style="0" width="15.6396761133603"/>
+    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="19.9514170040486"/>
+    <col collapsed="false" hidden="false" max="2" min="2" style="1" width="17.5263157894737"/>
+    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="16.753036437247"/>
+    <col collapsed="false" hidden="false" max="4" min="4" style="0" width="12.8542510121458"/>
+    <col collapsed="false" hidden="false" max="5" min="5" style="0" width="15.4251012145749"/>
     <col collapsed="false" hidden="false" max="6" min="6" style="0" width="16.3886639676113"/>
     <col collapsed="false" hidden="false" max="10" min="7" style="0" width="8.57085020242915"/>
     <col collapsed="false" hidden="false" max="12" min="11" style="1" width="9.10526315789474"/>
     <col collapsed="false" hidden="false" max="13" min="13" style="0" width="8.57085020242915"/>
-    <col collapsed="false" hidden="false" max="14" min="14" style="1" width="10.8056680161943"/>
-    <col collapsed="false" hidden="false" max="15" min="15" style="0" width="13.5627530364372"/>
-    <col collapsed="false" hidden="false" max="16" min="16" style="0" width="13.004048582996"/>
-    <col collapsed="false" hidden="false" max="1025" min="17" style="0" width="8.57085020242915"/>
+    <col collapsed="false" hidden="false" max="14" min="14" style="1" width="9.10526315789474"/>
+    <col collapsed="false" hidden="false" max="1025" min="15" style="0" width="8.57085020242915"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -347,72 +401,27 @@
       </c>
     </row>
     <row r="2" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A2" s="2" t="s">
-        <v>21</v>
-      </c>
-      <c r="B2" s="3" t="s">
-        <v>22</v>
-      </c>
-      <c r="C2" s="2" t="s">
-        <v>23</v>
-      </c>
-      <c r="D2" s="2" t="s">
-        <v>24</v>
-      </c>
-      <c r="E2" s="2" t="s">
-        <v>25</v>
-      </c>
-      <c r="F2" s="2" t="s">
-        <v>26</v>
-      </c>
-      <c r="G2" s="2" t="s">
-        <v>27</v>
-      </c>
-      <c r="H2" s="2" t="s">
-        <v>28</v>
-      </c>
-      <c r="I2" s="2" t="s">
-        <v>29</v>
-      </c>
-      <c r="J2" s="2" t="s">
-        <v>30</v>
-      </c>
-      <c r="K2" s="3" t="s">
-        <v>31</v>
-      </c>
-      <c r="L2" s="3" t="s">
-        <v>32</v>
-      </c>
-      <c r="M2" s="2" t="s">
-        <v>33</v>
-      </c>
-      <c r="N2" s="3" t="s">
-        <v>34</v>
-      </c>
-      <c r="O2" s="2" t="s">
-        <v>35</v>
-      </c>
-      <c r="P2" s="2" t="s">
-        <v>36</v>
-      </c>
-      <c r="Q2" s="2" t="s">
-        <v>37</v>
-      </c>
-      <c r="R2" s="2" t="s">
-        <v>37</v>
-      </c>
-      <c r="S2" s="2" t="s">
-        <v>37</v>
-      </c>
-      <c r="T2" s="2" t="s">
-        <v>37</v>
-      </c>
-      <c r="U2" s="2" t="s">
-        <v>37</v>
-      </c>
-      <c r="V2" s="0" t="s">
-        <v>37</v>
-      </c>
+      <c r="A2" s="2"/>
+      <c r="B2" s="3"/>
+      <c r="C2" s="2"/>
+      <c r="D2" s="2"/>
+      <c r="E2" s="2"/>
+      <c r="F2" s="2"/>
+      <c r="G2" s="2"/>
+      <c r="H2" s="2"/>
+      <c r="I2" s="2"/>
+      <c r="J2" s="2"/>
+      <c r="K2" s="3"/>
+      <c r="L2" s="3"/>
+      <c r="M2" s="2"/>
+      <c r="N2" s="3"/>
+      <c r="O2" s="2"/>
+      <c r="P2" s="2"/>
+      <c r="Q2" s="2"/>
+      <c r="R2" s="2"/>
+      <c r="S2" s="2"/>
+      <c r="T2" s="2"/>
+      <c r="U2" s="2"/>
     </row>
     <row r="3" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A3" s="2"/>
@@ -575,6 +584,92 @@
       <c r="T9" s="2"/>
       <c r="U9" s="2"/>
     </row>
+    <row r="21" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+  </sheetData>
+  <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.511805555555555" footer="0.511805555555555"/>
+  <pageSetup paperSize="9" scale="100" firstPageNumber="0" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" usePrinterDefaults="false" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="false" horizontalDpi="300" verticalDpi="300" copies="1"/>
+  <headerFooter differentFirst="false" differentOddEven="false">
+    <oddHeader/>
+    <oddFooter/>
+  </headerFooter>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <sheetPr filterMode="false">
+    <tabColor rgb="FF5B9BD5"/>
+    <pageSetUpPr fitToPage="false"/>
+  </sheetPr>
+  <dimension ref="A1:E5"/>
+  <sheetViews>
+    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="B2" activeCellId="0" sqref="A2:AH9"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15"/>
+  <cols>
+    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="8.57085020242915"/>
+    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="35.6720647773279"/>
+    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="18.6396761133603"/>
+    <col collapsed="false" hidden="false" max="4" min="4" style="0" width="26.5668016194332"/>
+    <col collapsed="false" hidden="false" max="5" min="5" style="0" width="20.8866396761134"/>
+    <col collapsed="false" hidden="false" max="1025" min="6" style="0" width="8.57085020242915"/>
+  </cols>
+  <sheetData>
+    <row r="1" s="1" customFormat="true" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A1" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="B1" s="3" t="s">
+        <v>22</v>
+      </c>
+      <c r="C1" s="3" t="s">
+        <v>23</v>
+      </c>
+      <c r="D1" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="E1" s="3" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="2" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A2" s="0" t="s">
+        <v>26</v>
+      </c>
+      <c r="B2" s="0" t="s">
+        <v>27</v>
+      </c>
+      <c r="C2" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="D2" s="4" t="s">
+        <v>29</v>
+      </c>
+      <c r="E2" s="2" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="3" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A3" s="0" t="s">
+        <v>31</v>
+      </c>
+      <c r="B3" s="0" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="4" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A4" s="0" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="5" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A5" s="0" t="s">
+        <v>34</v>
+      </c>
+    </row>
   </sheetData>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.511805555555555" footer="0.511805555555555"/>
